--- a/Chit.xlsx
+++ b/Chit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24507\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Vinod</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">Appu </t>
+  </si>
+  <si>
+    <t>Bal 5000</t>
+  </si>
+  <si>
+    <t>1,05,500</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +630,9 @@
       <c r="D6" s="4">
         <v>5000</v>
       </c>
+      <c r="E6" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -638,6 +647,9 @@
       <c r="D7" s="4">
         <v>5000</v>
       </c>
+      <c r="E7" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -652,6 +664,9 @@
       <c r="D8" s="4">
         <v>5000</v>
       </c>
+      <c r="E8" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -718,7 +733,7 @@
         <v>5000</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -734,6 +749,9 @@
       <c r="D13" s="4">
         <v>5000</v>
       </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -748,6 +766,9 @@
       <c r="D14" s="4">
         <v>5000</v>
       </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -830,6 +851,9 @@
       <c r="D19" s="4">
         <v>0</v>
       </c>
+      <c r="E19" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -844,6 +868,9 @@
       <c r="D20" s="4">
         <v>2000</v>
       </c>
+      <c r="E20" s="4">
+        <v>4500</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -858,6 +885,9 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
+      <c r="E21" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -889,19 +919,13 @@
       <c r="D23" s="4">
         <v>5000</v>
       </c>
+      <c r="E23" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5000</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5000</v>
+        <v>4</v>
       </c>
       <c r="E24" s="4">
         <v>5000</v>
@@ -909,60 +933,75 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <f>SUM(B2:B24)</f>
+      <c r="B26" s="4">
+        <f>SUM(B2:B25)</f>
         <v>65000</v>
       </c>
-      <c r="C25" s="4">
-        <f>SUM(C2:C24)</f>
+      <c r="C26" s="4">
+        <f>SUM(C2:C25)</f>
         <v>114000</v>
       </c>
-      <c r="D25" s="4">
-        <f>SUM(D2:D24)</f>
+      <c r="D26" s="4">
+        <f>SUM(D2:D25)</f>
         <v>102000</v>
       </c>
-      <c r="E25" s="4">
-        <f>SUM(E2:E24)</f>
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E26" s="4">
+        <f>SUM(E2:E25)</f>
+        <v>109500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>16000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="C31" s="4">
+        <v>11000</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="4">
-        <v>7500</v>
-      </c>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4">
-        <v>5000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>5000</v>
@@ -970,34 +1009,37 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="4">
-        <v>5000</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C39" s="4">
+        <v>13000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -1008,13 +1050,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>13000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,6 +1080,14 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3000</v>
+      </c>
+    </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>26500</v>
@@ -1056,12 +1106,25 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="4">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
